--- a/pre_data/pre_route.xlsx
+++ b/pre_data/pre_route.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>seniors</t>
+          <t>senior</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -578,22 +578,22 @@
         <v>18.8</v>
       </c>
       <c r="N2" t="n">
-        <v>44.6</v>
+        <v>22.3</v>
       </c>
       <c r="O2" t="n">
-        <v>52.40000000000001</v>
+        <v>26.2</v>
       </c>
       <c r="P2" t="n">
-        <v>47.40000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.40000000000001</v>
+        <v>24.2</v>
       </c>
       <c r="R2" t="n">
-        <v>69.7</v>
+        <v>23.2</v>
       </c>
       <c r="S2" t="n">
-        <v>50.7</v>
+        <v>25.4</v>
       </c>
       <c r="T2" t="n">
         <v>17.5</v>
@@ -642,22 +642,22 @@
         <v>39</v>
       </c>
       <c r="N3" t="n">
-        <v>79</v>
+        <v>39.5</v>
       </c>
       <c r="O3" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="P3" t="n">
-        <v>90.30000000000001</v>
+        <v>45.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.09999999999999</v>
+        <v>46.5</v>
       </c>
       <c r="R3" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="S3" t="n">
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="T3" t="n">
         <v>39.4</v>
@@ -706,22 +706,22 @@
         <v>12.7</v>
       </c>
       <c r="N4" t="n">
-        <v>29.9</v>
+        <v>14.9</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9</v>
+        <v>6.5</v>
       </c>
       <c r="P4" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>25.2</v>
+        <v>8.4</v>
       </c>
       <c r="S4" t="n">
-        <v>20.8</v>
+        <v>10.4</v>
       </c>
       <c r="T4" t="n">
         <v>20.3</v>
@@ -770,22 +770,22 @@
         <v>3.3</v>
       </c>
       <c r="N5" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="P5" t="n">
-        <v>7.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
         <v>4.1</v>
@@ -834,22 +834,22 @@
         <v>2.8</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="P6" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>4.3</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>2.6</v>
@@ -898,22 +898,22 @@
         <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
         <v>0.8</v>
@@ -962,22 +962,22 @@
         <v>0.9</v>
       </c>
       <c r="N8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O8" t="n">
         <v>2.2</v>
       </c>
-      <c r="O8" t="n">
-        <v>4.4</v>
-      </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
       </c>
       <c r="T8" t="inlineStr"/>
     </row>
@@ -1024,22 +1024,22 @@
         <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>23.4</v>
+        <v>11.7</v>
       </c>
       <c r="O9" t="n">
-        <v>26.4</v>
+        <v>13.2</v>
       </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>18.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.5</v>
+        <v>20.7</v>
       </c>
       <c r="R9" t="n">
-        <v>43.7</v>
+        <v>14.6</v>
       </c>
       <c r="S9" t="n">
-        <v>22.8</v>
+        <v>11.4</v>
       </c>
       <c r="T9" t="n">
         <v>15.2</v>
@@ -1130,22 +1130,22 @@
         <v>21.6</v>
       </c>
       <c r="N11" t="n">
-        <v>54.7</v>
+        <v>27.4</v>
       </c>
       <c r="O11" t="n">
-        <v>60.3</v>
+        <v>30.1</v>
       </c>
       <c r="P11" t="n">
-        <v>55.3</v>
+        <v>27.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.5</v>
+        <v>27.2</v>
       </c>
       <c r="R11" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="S11" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="T11" t="inlineStr"/>
     </row>
@@ -1192,22 +1192,22 @@
         <v>41.1</v>
       </c>
       <c r="N12" t="n">
-        <v>73.09999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="O12" t="n">
-        <v>77.5</v>
+        <v>38.7</v>
       </c>
       <c r="P12" t="n">
-        <v>88.3</v>
+        <v>44.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>89</v>
+        <v>44.5</v>
       </c>
       <c r="R12" t="n">
-        <v>118</v>
+        <v>39.3</v>
       </c>
       <c r="S12" t="n">
-        <v>74.2</v>
+        <v>37.1</v>
       </c>
       <c r="T12" t="inlineStr"/>
     </row>
@@ -1254,22 +1254,22 @@
         <v>15.7</v>
       </c>
       <c r="N13" t="n">
-        <v>33.90000000000001</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>9.1</v>
       </c>
       <c r="P13" t="n">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.600000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="R13" t="n">
-        <v>33.7</v>
+        <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>25.2</v>
+        <v>12.6</v>
       </c>
       <c r="T13" t="inlineStr"/>
     </row>
@@ -1316,22 +1316,22 @@
         <v>2.1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="O14" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>7.9</v>
+        <v>2.6</v>
       </c>
       <c r="S14" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="T14" t="inlineStr"/>
     </row>
@@ -1378,22 +1378,22 @@
         <v>2.9</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>7.799999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="S15" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="T15" t="inlineStr"/>
     </row>
@@ -1440,22 +1440,22 @@
         <v>0.7</v>
       </c>
       <c r="N16" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="P16" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="T16" t="inlineStr"/>
     </row>
@@ -1502,22 +1502,22 @@
         <v>0.3</v>
       </c>
       <c r="N17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.4</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>1.5</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R17" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="T17" t="inlineStr"/>
     </row>
@@ -1564,22 +1564,22 @@
         <v>14.5</v>
       </c>
       <c r="N18" t="n">
-        <v>24.4</v>
+        <v>12.2</v>
       </c>
       <c r="O18" t="n">
-        <v>29.2</v>
+        <v>14.6</v>
       </c>
       <c r="P18" t="n">
-        <v>36.2</v>
+        <v>18.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.40000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="R18" t="n">
-        <v>43.4</v>
+        <v>14.5</v>
       </c>
       <c r="S18" t="n">
-        <v>27.3</v>
+        <v>13.7</v>
       </c>
       <c r="T18" t="inlineStr"/>
     </row>
@@ -1626,22 +1626,22 @@
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O19" t="n">
         <v>0.2</v>
       </c>
-      <c r="O19" t="n">
-        <v>0.3</v>
-      </c>
       <c r="P19" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T19" t="inlineStr"/>
     </row>
@@ -1688,22 +1688,22 @@
         <v>28.1</v>
       </c>
       <c r="N20" t="n">
-        <v>59.8</v>
+        <v>29.9</v>
       </c>
       <c r="O20" t="n">
-        <v>72.59999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="P20" t="n">
-        <v>66.8</v>
+        <v>33.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>71</v>
+        <v>35.5</v>
       </c>
       <c r="R20" t="n">
-        <v>99.69999999999999</v>
+        <v>33.2</v>
       </c>
       <c r="S20" t="n">
-        <v>64.3</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="inlineStr"/>
     </row>
@@ -1750,22 +1750,22 @@
         <v>31.6</v>
       </c>
       <c r="N21" t="n">
-        <v>56.6</v>
+        <v>28.3</v>
       </c>
       <c r="O21" t="n">
-        <v>55.4</v>
+        <v>27.7</v>
       </c>
       <c r="P21" t="n">
-        <v>69</v>
+        <v>34.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.6</v>
+        <v>31.8</v>
       </c>
       <c r="R21" t="n">
-        <v>86.10000000000001</v>
+        <v>28.7</v>
       </c>
       <c r="S21" t="n">
-        <v>59.09999999999999</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="inlineStr"/>
     </row>
@@ -1812,22 +1812,22 @@
         <v>12.2</v>
       </c>
       <c r="N22" t="n">
-        <v>37.7</v>
+        <v>18.8</v>
       </c>
       <c r="O22" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="P22" t="n">
-        <v>4.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="R22" t="n">
-        <v>36.7</v>
+        <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="T22" t="inlineStr"/>
     </row>
@@ -1874,22 +1874,22 @@
         <v>2.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="R23" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="inlineStr"/>
     </row>
@@ -1936,22 +1936,22 @@
         <v>3.2</v>
       </c>
       <c r="N24" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="O24" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="R24" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="inlineStr"/>
     </row>
@@ -1996,18 +1996,18 @@
         <v>0.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="T25" t="inlineStr"/>
     </row>
@@ -2054,20 +2054,20 @@
         <v>0.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="T26" t="inlineStr"/>
     </row>
@@ -2114,22 +2114,22 @@
         <v>22</v>
       </c>
       <c r="N27" t="n">
-        <v>35.90000000000001</v>
+        <v>18</v>
       </c>
       <c r="O27" t="n">
-        <v>44.59999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="P27" t="n">
-        <v>52.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.3</v>
+        <v>27.2</v>
       </c>
       <c r="R27" t="n">
-        <v>63.50000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="S27" t="n">
-        <v>39</v>
+        <v>19.5</v>
       </c>
       <c r="T27" t="inlineStr"/>
     </row>
@@ -2174,17 +2174,17 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>0.1</v>
       </c>
-      <c r="O28" t="n">
-        <v>0.2</v>
-      </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2234,22 +2234,22 @@
         <v>32.6</v>
       </c>
       <c r="N29" t="n">
-        <v>60.40000000000001</v>
+        <v>30.2</v>
       </c>
       <c r="O29" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="P29" t="n">
-        <v>71.09999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>72</v>
+        <v>36.1</v>
       </c>
       <c r="R29" t="n">
-        <v>105.1</v>
+        <v>35</v>
       </c>
       <c r="S29" t="n">
-        <v>63</v>
+        <v>31.5</v>
       </c>
       <c r="T29" t="inlineStr"/>
     </row>
@@ -2296,22 +2296,22 @@
         <v>28.3</v>
       </c>
       <c r="N30" t="n">
-        <v>49.09999999999999</v>
+        <v>24.6</v>
       </c>
       <c r="O30" t="n">
-        <v>53.3</v>
+        <v>26.6</v>
       </c>
       <c r="P30" t="n">
-        <v>63.40000000000001</v>
+        <v>31.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.6</v>
+        <v>30.9</v>
       </c>
       <c r="R30" t="n">
-        <v>79.19999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="S30" t="n">
-        <v>53.2</v>
+        <v>26.6</v>
       </c>
       <c r="T30" t="inlineStr"/>
     </row>
@@ -2358,22 +2358,22 @@
         <v>18.3</v>
       </c>
       <c r="N31" t="n">
-        <v>47.9</v>
+        <v>24</v>
       </c>
       <c r="O31" t="n">
-        <v>27.8</v>
+        <v>13.9</v>
       </c>
       <c r="P31" t="n">
-        <v>9.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="R31" t="n">
-        <v>43.40000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="S31" t="n">
-        <v>41.9</v>
+        <v>20.9</v>
       </c>
       <c r="T31" t="inlineStr"/>
     </row>
@@ -2420,22 +2420,22 @@
         <v>0.8</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O32" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="R32" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="T32" t="inlineStr"/>
     </row>
@@ -2482,22 +2482,22 @@
         <v>0.6</v>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="O33" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="P33" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="R33" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="T33" t="inlineStr"/>
     </row>
@@ -2544,22 +2544,22 @@
         <v>0.5</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="O34" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T34" t="inlineStr"/>
     </row>
@@ -2606,20 +2606,20 @@
         <v>0.1</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="T35" t="inlineStr"/>
     </row>
@@ -2666,22 +2666,22 @@
         <v>18.9</v>
       </c>
       <c r="N36" t="n">
-        <v>33.7</v>
+        <v>16.9</v>
       </c>
       <c r="O36" t="n">
-        <v>38.5</v>
+        <v>19.2</v>
       </c>
       <c r="P36" t="n">
-        <v>48.40000000000001</v>
+        <v>24.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1</v>
+        <v>26.1</v>
       </c>
       <c r="R36" t="n">
-        <v>59.3</v>
+        <v>19.8</v>
       </c>
       <c r="S36" t="n">
-        <v>33.8</v>
+        <v>16.9</v>
       </c>
       <c r="T36" t="inlineStr"/>
     </row>
@@ -2770,22 +2770,22 @@
         <v>29.2</v>
       </c>
       <c r="N38" t="n">
-        <v>58.90000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="O38" t="n">
-        <v>71.09999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="P38" t="n">
-        <v>70.59999999999999</v>
+        <v>35.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.2</v>
+        <v>32.1</v>
       </c>
       <c r="R38" t="n">
-        <v>102.2</v>
+        <v>34</v>
       </c>
       <c r="S38" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="T38" t="inlineStr"/>
     </row>
@@ -2832,22 +2832,22 @@
         <v>27.4</v>
       </c>
       <c r="N39" t="n">
-        <v>49.6</v>
+        <v>24.8</v>
       </c>
       <c r="O39" t="n">
-        <v>52.3</v>
+        <v>26.2</v>
       </c>
       <c r="P39" t="n">
-        <v>67.59999999999999</v>
+        <v>33.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.7</v>
+        <v>32.4</v>
       </c>
       <c r="R39" t="n">
-        <v>79.60000000000001</v>
+        <v>26.5</v>
       </c>
       <c r="S39" t="n">
-        <v>54.5</v>
+        <v>27.3</v>
       </c>
       <c r="T39" t="inlineStr"/>
     </row>
@@ -2894,22 +2894,22 @@
         <v>21.3</v>
       </c>
       <c r="N40" t="n">
-        <v>48.4</v>
+        <v>24.2</v>
       </c>
       <c r="O40" t="n">
-        <v>30.8</v>
+        <v>15.4</v>
       </c>
       <c r="P40" t="n">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.3</v>
+        <v>5.6</v>
       </c>
       <c r="R40" t="n">
-        <v>45.90000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="S40" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T40" t="inlineStr"/>
     </row>
@@ -2956,22 +2956,22 @@
         <v>0.9</v>
       </c>
       <c r="N41" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="O41" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="P41" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="R41" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="T41" t="inlineStr"/>
     </row>
@@ -3018,22 +3018,22 @@
         <v>1.5</v>
       </c>
       <c r="N42" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="O42" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="S42" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="T42" t="inlineStr"/>
     </row>
@@ -3080,22 +3080,22 @@
         <v>0.7</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R43" t="n">
         <v>0.5</v>
       </c>
-      <c r="R43" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T43" t="inlineStr"/>
     </row>
@@ -3142,22 +3142,22 @@
         <v>0.7</v>
       </c>
       <c r="N44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O44" t="n">
         <v>0.5</v>
       </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
       <c r="P44" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="T44" t="inlineStr"/>
     </row>
@@ -3204,22 +3204,22 @@
         <v>18.4</v>
       </c>
       <c r="N45" t="n">
-        <v>31.8</v>
+        <v>15.9</v>
       </c>
       <c r="O45" t="n">
-        <v>34.8</v>
+        <v>17.4</v>
       </c>
       <c r="P45" t="n">
-        <v>39.9</v>
+        <v>20</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.1</v>
+        <v>24.6</v>
       </c>
       <c r="R45" t="n">
-        <v>57.7</v>
+        <v>19.2</v>
       </c>
       <c r="S45" t="n">
-        <v>30.3</v>
+        <v>15.2</v>
       </c>
       <c r="T45" t="inlineStr"/>
     </row>
